--- a/nuon/instagram_posts_emma_kimmm.xlsx
+++ b/nuon/instagram_posts_emma_kimmm.xlsx
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>11</v>
@@ -2469,7 +2469,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="E34">
         <v>11</v>
@@ -2563,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -2798,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>715</v>
       </c>
       <c r="E40">
         <v>16</v>
@@ -2845,7 +2845,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="E41">
         <v>9</v>
@@ -2895,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="E45">
         <v>6</v>
@@ -3083,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3177,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E48">
         <v>23</v>
@@ -3224,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="E49">
         <v>3</v>
